--- a/file/downloadExcel/students.xlsx
+++ b/file/downloadExcel/students.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -39,16 +39,13 @@
     <t>Faculty</t>
   </si>
   <si>
-    <t>1</t>
+    <t>50707dbd-b8c9-4728-ab1e-3b6773f1029f</t>
   </si>
   <si>
-    <t>Bahodirov</t>
+    <t>Bahodirovbi</t>
   </si>
   <si>
     <t>Muzaffar</t>
-  </si>
-  <si>
-    <t>Qodir ogli</t>
   </si>
   <si>
     <t>2001-09-28</t>
@@ -58,42 +55,6 @@
   </si>
   <si>
     <t>Accounting</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Muhammad</t>
-  </si>
-  <si>
-    <t>2003-09-15</t>
-  </si>
-  <si>
-    <t>BR-11</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Arman</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Erkinov</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Akmal ogli</t>
   </si>
 </sst>
 </file>
@@ -568,156 +529,70 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="1"/>
